--- a/Temario/EIE/Libro plan de negocio (1).xlsx
+++ b/Temario/EIE/Libro plan de negocio (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Axuda" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">PLANTILLA ANÁLISIS DAFO</t>
   </si>
@@ -181,10 +181,10 @@
     <t xml:space="preserve">- Implementación de inteligencia artifical o asistencia virtual o presencial con profesionales en el ámbito</t>
   </si>
   <si>
-    <t xml:space="preserve">Mayor conocimeinto de las necesidades del cliente para adaptabilidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Conseguir experiencia a lo largo del tiempo en despliegue de aplicaciones'file:///media/MV-Linux/MaquinasVirtuais/a23bernalrc/Repositorios/TemarioDAW2/Temario/EIE/DAFO en excel.xlsx'#$Estratexias.D20</t>
+    <t xml:space="preserve">- Mayor conocimiento de las necesidades del cliente para adaptabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Conseguir experiencia a lo largo del tiempo en despliegue de aplicaciones</t>
   </si>
   <si>
     <t xml:space="preserve">OFENSIVAS </t>
@@ -217,7 +217,7 @@
     <t xml:space="preserve">VALORES</t>
   </si>
   <si>
-    <t xml:space="preserve">Solidaridad y accesibilidad ya que no todo el mundo puede permitirse altos costos en cuanto a alimentación y deporte, y esfuerzo y disciplina para lograr los objetivos en mente</t>
+    <t xml:space="preserve">Facilidad, solidaridad y accesibilidad ya que no todo el mundo puede permitirse altos costos en cuanto a alimentación y deporte, y esfuerzo y disciplina para lograr los objetivos en mente</t>
   </si>
   <si>
     <t xml:space="preserve">IDENTIDADE VISUAL</t>
@@ -232,6 +232,9 @@
     <t xml:space="preserve">...o meu negocio e eu imos ser responsables incorporando na xestión da empresa diferentes accións en materia de RSE, por exemplo… destinada/as a…, contando cos seguintes recursos… e elaborando unha memoria de sustentabilidade anual que será dada a coñecer a través de...</t>
   </si>
   <si>
+    <t xml:space="preserve">Cumplimiento de la legalidad vigente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Balance Social se é o caso</t>
   </si>
   <si>
@@ -241,7 +244,7 @@
     <t xml:space="preserve">Interesa coñecer como está a evolucionar o sector. Nesta fase non tomaremos como referencia o mercado global, posto que a nosa empresa probablemente terá un carácter local, non debemos ir máis aló do ámbito nacional. En concreto haberá que caracterizalo en canto a: tamaño, taxa de crecemento, tipoloxía de empresas, momento do ciclo de vida do mercado, tipo de competencia, existencia de empresas líderes ou de barreiras de entrada e calquera outro dato de interese.</t>
   </si>
   <si>
-    <t xml:space="preserve">Para o meu estudo de mercado utilicei: fontes primarias... E fontes secuncaria...</t>
+    <t xml:space="preserve">Para comparar y ver datos y estadísticas sobre la competencia y el mercado actual visité numerosas páginas entre otras → https://www.mordorintelligence.com/es/industry-reports/digital-fitness-apps-market y https://www.gminsights.com/es/industry-analysis/diet-and-nutrition-apps-market Información más detallada en el resto de apartados específicos.</t>
   </si>
   <si>
     <t xml:space="preserve">Segmento de cliente (Canvas)</t>
@@ -269,7 +272,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">La aplicación puede ser usada por cualquier persona, pero si especificamos un rango concreto sería entre los 17 y los 35 años que practiquen o tenga intencion de practicar deporte o quieran un seguimiento sobre su alimentacion. Al ser una aplicación serían personas físicas pero la visión de la empresa sería que la app pudiera ser adquirida con mas detalle o personalizada a otros organismos.</t>
+    <t xml:space="preserve">La aplicación puede ser usada por cualquier persona, pero si especificamos un rango concreto sería entre los 17 y los 35 años que practiquen o tenga intencion de practicar deporte o quieran un seguimiento sobre su alimentacion. Al ser una aplicación serían personas físicas pero la visión de la empresa sería que la app pudiera ser adquirida con mas detalle o personalizada a organismos mayores. O de lo contrario tener como aliado principalmente otra empresa y después expandirse en el resto.</t>
   </si>
   <si>
     <t xml:space="preserve">A demanda actual e potencial</t>
@@ -297,7 +300,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Las estadísticas estiman una subida de un 14% de cara al 2029, el mercado más concentrado se encuentra en América del Norte pero con mucha repercusión en Europa, Asia y América del Sur. No hay líderes de mercado dominantes.  Se espera que el mercado tenga para 2031 un valor de 118mil millones de dólares</t>
+    <t xml:space="preserve">Las estadísticas estiman una subida de un 14% de cara al 2029, el mercado más concentrado se encuentra en América del Norte pero con mucha repercusión en Europa, Asia y América del Sur. No hay líderes de mercado dominantes.  Se espera que el mercado tenga para 2031 un valor de 118mil millones de dólares. Hay aplicaciones que son más populares en determinados continentes o países por lo que no sería necesario focalizarme en un lugar geográfico concreto.</t>
   </si>
   <si>
     <t xml:space="preserve">* O mercado de referencia é o conxunto de individuos que consumen o produto,</t>
@@ -312,19 +315,33 @@
     <t xml:space="preserve">Sinala as características máis relevantes destes axentes do mercado para o teu negocio segundo o que comentamos na Unidade de Traballo</t>
   </si>
   <si>
+    <t xml:space="preserve">Al crear individualmente la aplicación, el producto sería adquirido directamente por el consumidor sin necesidad de intermediarios.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Se é o caso produtos substitutivos</t>
   </si>
   <si>
     <t xml:space="preserve">Competencia</t>
   </si>
   <si>
-    <t xml:space="preserve">É posible que penses que ter competencia é unha desvantaxe, pero se saber sacarlle proveito, ter competencia librarache de cometer moitos erros. Identifica a túa competencia, estúdaa para aprender dela, para identificar os seus puntos febles e superala. Resume neste apartado a información que poidas localizar sobre a túa competencia directa. Nome, localización, servizos prestados, prezos, tamaño, vantaxe competitivas, debilidades, etc....</t>
+    <t xml:space="preserve">É posible que penses que ter competencia é unha desvantaxe, pero se saber sacarlle proveito, ter competencia librarache de cometer moitos erros. Identifica a túa competencia, estúdaa para aprender dela, para identificar os seus puntos febles e superala. Resume neste apartado a información que poidas localizar sobre a túa competencia directa. Nome, localización, servizos prestados, prezos, tamaño, vantaxe competitivas, debilidades, etc.…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MyFitnessPal→ Base de datos ampla, integración de apps | Funcións limitadas na versión gratuíta
+Yazio → Dietas personalizadas | Poca integración con dispositivos
+Freeletics → Adestramento flexible e sen equipo | Foco limitado en nutrición
+Lifesum → Interface amigable, consellos de saúde | Limitada personalización na versión gratuíta
+Cronometer → Análise detallada de nutrientes | Interface pouco amigable                                                                                                         Xeralmente as apps sobre nutrición teñen unha versión gratuita e unha versión de pago que varía dependendo dos servicios rondan os 10€ mensuales</t>
   </si>
   <si>
     <t xml:space="preserve">Conclusións: diagnóstico da situación inicial</t>
   </si>
   <si>
     <t xml:space="preserve">Realiza unha valoraciíon da información recollida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teniendo en cuenta las debilidades y fortalezas de la competencia, la idea original y la demanda actual podemos hacernos un hueco en el mercado y poco a poco hacerle frente a los líderes de mercado. La propuesta de valor, la estética y accesibilidad cogen importancia ya que la competencia tiene carencias en esos ámbitos. Con un buen marketing y una buena introducción en el mercado se podría posicionar bien, junto con actualizaciones y mejoras continuas en la aplicación. </t>
   </si>
   <si>
     <t xml:space="preserve">Definición da misión e  establecemento de obxectivos</t>
@@ -1415,10 +1432,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1436,7 +1449,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1463,10 +1476,6 @@
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -1499,6 +1508,10 @@
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1509,6 +1522,10 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1759,7 +1776,7 @@
   </sheetPr>
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2223,8 +2240,8 @@
   </sheetPr>
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2443,7 +2460,7 @@
       <c r="G19" s="33"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
       <c r="C20" s="34" t="n">
         <v>1</v>
@@ -2642,8 +2659,8 @@
   </sheetPr>
   <dimension ref="B2:H47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2975,8 +2992,8 @@
   </sheetPr>
   <dimension ref="A2:I76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3013,594 +3030,596 @@
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="48" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
+      <c r="A48" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="51"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3627,8 +3646,8 @@
   </sheetPr>
   <dimension ref="A2:I252"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K96" activeCellId="0" sqref="K96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K150" activeCellId="0" sqref="K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3638,7 +3657,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -3650,656 +3669,656 @@
       <c r="I2" s="45"/>
     </row>
     <row r="4" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="B4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
+      <c r="B6" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="46" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
+      <c r="A46" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
     </row>
     <row r="48" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
+      <c r="B48" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
+      <c r="B49" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="53"/>
     </row>
     <row r="91" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
+      <c r="A91" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="49"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
     </row>
     <row r="93" customFormat="false" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
+      <c r="B93" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
     </row>
     <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="56"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" s="46"/>
       <c r="D95" s="46"/>
@@ -4543,318 +4562,320 @@
       <c r="H121" s="46"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="57"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="57"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
+      <c r="B124" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="56"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="56"/>
+      <c r="H124" s="56"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C125" s="57"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="57"/>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="57"/>
+      <c r="B125" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="56"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="56"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
     </row>
     <row r="130" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B130" s="50"/>
-      <c r="C130" s="50"/>
-      <c r="D130" s="50"/>
-      <c r="E130" s="50"/>
-      <c r="F130" s="50"/>
-      <c r="G130" s="50"/>
-      <c r="H130" s="50"/>
-      <c r="I130" s="50"/>
+      <c r="A130" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" s="49"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="49"/>
+      <c r="I130" s="49"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="58"/>
+      <c r="B131" s="57"/>
     </row>
     <row r="132" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C132" s="59"/>
-      <c r="D132" s="59"/>
-      <c r="E132" s="59"/>
-      <c r="F132" s="59"/>
-      <c r="G132" s="59"/>
-      <c r="H132" s="59"/>
+      <c r="B132" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132" s="58"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="58"/>
+      <c r="F132" s="58"/>
+      <c r="G132" s="58"/>
+      <c r="H132" s="58"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
-      <c r="H133" s="53"/>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="54"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="52"/>
+      <c r="G133" s="52"/>
+      <c r="H133" s="52"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" s="53"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="53"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="53"/>
+      <c r="H134" s="53"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="54"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="54"/>
-      <c r="F135" s="54"/>
-      <c r="G135" s="54"/>
-      <c r="H135" s="54"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="53"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="54"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="54"/>
-      <c r="F136" s="54"/>
-      <c r="G136" s="54"/>
-      <c r="H136" s="54"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="53"/>
+      <c r="H136" s="53"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="54"/>
-      <c r="C137" s="54"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="54"/>
-      <c r="F137" s="54"/>
-      <c r="G137" s="54"/>
-      <c r="H137" s="54"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
+      <c r="H137" s="53"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="54"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="54"/>
-      <c r="F138" s="54"/>
-      <c r="G138" s="54"/>
-      <c r="H138" s="54"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="53"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="53"/>
+      <c r="H138" s="53"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="54"/>
-      <c r="C139" s="54"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="54"/>
-      <c r="F139" s="54"/>
-      <c r="G139" s="54"/>
-      <c r="H139" s="54"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="53"/>
+      <c r="E139" s="53"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="53"/>
+      <c r="H139" s="53"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="54"/>
-      <c r="C140" s="54"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="54"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="54"/>
-      <c r="H140" s="54"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="53"/>
+      <c r="E140" s="53"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="53"/>
+      <c r="H140" s="53"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="54"/>
-      <c r="C141" s="54"/>
-      <c r="D141" s="54"/>
-      <c r="E141" s="54"/>
-      <c r="F141" s="54"/>
-      <c r="G141" s="54"/>
-      <c r="H141" s="54"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="53"/>
+      <c r="E141" s="53"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="53"/>
+      <c r="H141" s="53"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="54"/>
-      <c r="C142" s="54"/>
-      <c r="D142" s="54"/>
-      <c r="E142" s="54"/>
-      <c r="F142" s="54"/>
-      <c r="G142" s="54"/>
-      <c r="H142" s="54"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="53"/>
+      <c r="H142" s="53"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="54"/>
-      <c r="C143" s="54"/>
-      <c r="D143" s="54"/>
-      <c r="E143" s="54"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="54"/>
-      <c r="H143" s="54"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="53"/>
+      <c r="E143" s="53"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="53"/>
+      <c r="H143" s="53"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="54"/>
-      <c r="C144" s="54"/>
-      <c r="D144" s="54"/>
-      <c r="E144" s="54"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="54"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="53"/>
+      <c r="E144" s="53"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="53"/>
+      <c r="H144" s="53"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="54"/>
-      <c r="C145" s="54"/>
-      <c r="D145" s="54"/>
-      <c r="E145" s="54"/>
-      <c r="F145" s="54"/>
-      <c r="G145" s="54"/>
-      <c r="H145" s="54"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="53"/>
+      <c r="E145" s="53"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="53"/>
+      <c r="H145" s="53"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="54"/>
-      <c r="C146" s="54"/>
-      <c r="D146" s="54"/>
-      <c r="E146" s="54"/>
-      <c r="F146" s="54"/>
-      <c r="G146" s="54"/>
-      <c r="H146" s="54"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="53"/>
+      <c r="F146" s="53"/>
+      <c r="G146" s="53"/>
+      <c r="H146" s="53"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="54"/>
-      <c r="C147" s="54"/>
-      <c r="D147" s="54"/>
-      <c r="E147" s="54"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="54"/>
-      <c r="H147" s="54"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="53"/>
+      <c r="F147" s="53"/>
+      <c r="G147" s="53"/>
+      <c r="H147" s="53"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="54"/>
-      <c r="C148" s="54"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="54"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="54"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="53"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="53"/>
+      <c r="H148" s="53"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="54"/>
-      <c r="C149" s="54"/>
-      <c r="D149" s="54"/>
-      <c r="E149" s="54"/>
-      <c r="F149" s="54"/>
-      <c r="G149" s="54"/>
-      <c r="H149" s="54"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="53"/>
+      <c r="E149" s="53"/>
+      <c r="F149" s="53"/>
+      <c r="G149" s="53"/>
+      <c r="H149" s="53"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="54"/>
-      <c r="C150" s="54"/>
-      <c r="D150" s="54"/>
-      <c r="E150" s="54"/>
-      <c r="F150" s="54"/>
-      <c r="G150" s="54"/>
-      <c r="H150" s="54"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="53"/>
+      <c r="E150" s="53"/>
+      <c r="F150" s="53"/>
+      <c r="G150" s="53"/>
+      <c r="H150" s="53"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="54"/>
-      <c r="C151" s="54"/>
-      <c r="D151" s="54"/>
-      <c r="E151" s="54"/>
-      <c r="F151" s="54"/>
-      <c r="G151" s="54"/>
-      <c r="H151" s="54"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="53"/>
+      <c r="E151" s="53"/>
+      <c r="F151" s="53"/>
+      <c r="G151" s="53"/>
+      <c r="H151" s="53"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="54"/>
-      <c r="C152" s="54"/>
-      <c r="D152" s="54"/>
-      <c r="E152" s="54"/>
-      <c r="F152" s="54"/>
-      <c r="G152" s="54"/>
-      <c r="H152" s="54"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="53"/>
+      <c r="E152" s="53"/>
+      <c r="F152" s="53"/>
+      <c r="G152" s="53"/>
+      <c r="H152" s="53"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="54"/>
-      <c r="C153" s="54"/>
-      <c r="D153" s="54"/>
-      <c r="E153" s="54"/>
-      <c r="F153" s="54"/>
-      <c r="G153" s="54"/>
-      <c r="H153" s="54"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="53"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="53"/>
+      <c r="H153" s="53"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="54"/>
-      <c r="C154" s="54"/>
-      <c r="D154" s="54"/>
-      <c r="E154" s="54"/>
-      <c r="F154" s="54"/>
-      <c r="G154" s="54"/>
-      <c r="H154" s="54"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="53"/>
+      <c r="E154" s="53"/>
+      <c r="F154" s="53"/>
+      <c r="G154" s="53"/>
+      <c r="H154" s="53"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="54"/>
-      <c r="C155" s="54"/>
-      <c r="D155" s="54"/>
-      <c r="E155" s="54"/>
-      <c r="F155" s="54"/>
-      <c r="G155" s="54"/>
-      <c r="H155" s="54"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="53"/>
+      <c r="E155" s="53"/>
+      <c r="F155" s="53"/>
+      <c r="G155" s="53"/>
+      <c r="H155" s="53"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="54"/>
-      <c r="C156" s="54"/>
-      <c r="D156" s="54"/>
-      <c r="E156" s="54"/>
-      <c r="F156" s="54"/>
-      <c r="G156" s="54"/>
-      <c r="H156" s="54"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="53"/>
+      <c r="E156" s="53"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="53"/>
+      <c r="H156" s="53"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="54"/>
-      <c r="C157" s="54"/>
-      <c r="D157" s="54"/>
-      <c r="E157" s="54"/>
-      <c r="F157" s="54"/>
-      <c r="G157" s="54"/>
-      <c r="H157" s="54"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="53"/>
+      <c r="E157" s="53"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="53"/>
+      <c r="H157" s="53"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="54"/>
-      <c r="C158" s="54"/>
-      <c r="D158" s="54"/>
-      <c r="E158" s="54"/>
-      <c r="F158" s="54"/>
-      <c r="G158" s="54"/>
-      <c r="H158" s="54"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="53"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="53"/>
+      <c r="H158" s="53"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="54"/>
-      <c r="C159" s="54"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="54"/>
-      <c r="F159" s="54"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="54"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="53"/>
+      <c r="E159" s="53"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="53"/>
+      <c r="H159" s="53"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="54"/>
-      <c r="C160" s="54"/>
-      <c r="D160" s="54"/>
-      <c r="E160" s="54"/>
-      <c r="F160" s="54"/>
-      <c r="G160" s="54"/>
-      <c r="H160" s="54"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="53"/>
+      <c r="E160" s="53"/>
+      <c r="F160" s="53"/>
+      <c r="G160" s="53"/>
+      <c r="H160" s="53"/>
     </row>
     <row r="162" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B162" s="50"/>
-      <c r="C162" s="50"/>
-      <c r="D162" s="50"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="50"/>
-      <c r="G162" s="50"/>
-      <c r="H162" s="50"/>
-      <c r="I162" s="50"/>
+      <c r="A162" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B162" s="49"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="49"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="49"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="49"/>
+      <c r="I162" s="49"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="47"/>
@@ -4956,556 +4977,560 @@
       <c r="H174" s="47"/>
     </row>
     <row r="179" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B179" s="50"/>
-      <c r="C179" s="50"/>
-      <c r="D179" s="50"/>
-      <c r="E179" s="50"/>
-      <c r="F179" s="50"/>
-      <c r="G179" s="50"/>
-      <c r="H179" s="50"/>
-      <c r="I179" s="50"/>
+      <c r="A179" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B179" s="49"/>
+      <c r="C179" s="49"/>
+      <c r="D179" s="49"/>
+      <c r="E179" s="49"/>
+      <c r="F179" s="49"/>
+      <c r="G179" s="49"/>
+      <c r="H179" s="49"/>
+      <c r="I179" s="49"/>
     </row>
     <row r="181" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C181" s="60"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="60"/>
-      <c r="H181" s="60"/>
+      <c r="B181" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C181" s="59"/>
+      <c r="D181" s="59"/>
+      <c r="E181" s="59"/>
+      <c r="F181" s="59"/>
+      <c r="G181" s="59"/>
+      <c r="H181" s="59"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="56"/>
-      <c r="C182" s="56"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="56"/>
-      <c r="F182" s="56"/>
-      <c r="G182" s="56"/>
-      <c r="H182" s="56"/>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="61"/>
-      <c r="C183" s="61"/>
-      <c r="D183" s="61"/>
-      <c r="E183" s="61"/>
-      <c r="F183" s="61"/>
-      <c r="G183" s="61"/>
-      <c r="H183" s="61"/>
+      <c r="B182" s="55"/>
+      <c r="C182" s="55"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="55"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B183" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C183" s="46"/>
+      <c r="D183" s="46"/>
+      <c r="E183" s="46"/>
+      <c r="F183" s="46"/>
+      <c r="G183" s="46"/>
+      <c r="H183" s="46"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="61"/>
-      <c r="C184" s="61"/>
-      <c r="D184" s="61"/>
-      <c r="E184" s="61"/>
-      <c r="F184" s="61"/>
-      <c r="G184" s="61"/>
-      <c r="H184" s="61"/>
+      <c r="B184" s="46"/>
+      <c r="C184" s="46"/>
+      <c r="D184" s="46"/>
+      <c r="E184" s="46"/>
+      <c r="F184" s="46"/>
+      <c r="G184" s="46"/>
+      <c r="H184" s="46"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="61"/>
-      <c r="C185" s="61"/>
-      <c r="D185" s="61"/>
-      <c r="E185" s="61"/>
-      <c r="F185" s="61"/>
-      <c r="G185" s="61"/>
-      <c r="H185" s="61"/>
+      <c r="B185" s="46"/>
+      <c r="C185" s="46"/>
+      <c r="D185" s="46"/>
+      <c r="E185" s="46"/>
+      <c r="F185" s="46"/>
+      <c r="G185" s="46"/>
+      <c r="H185" s="46"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="61"/>
-      <c r="C186" s="61"/>
-      <c r="D186" s="61"/>
-      <c r="E186" s="61"/>
-      <c r="F186" s="61"/>
-      <c r="G186" s="61"/>
-      <c r="H186" s="61"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="46"/>
+      <c r="E186" s="46"/>
+      <c r="F186" s="46"/>
+      <c r="G186" s="46"/>
+      <c r="H186" s="46"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="61"/>
-      <c r="C187" s="61"/>
-      <c r="D187" s="61"/>
-      <c r="E187" s="61"/>
-      <c r="F187" s="61"/>
-      <c r="G187" s="61"/>
-      <c r="H187" s="61"/>
+      <c r="B187" s="46"/>
+      <c r="C187" s="46"/>
+      <c r="D187" s="46"/>
+      <c r="E187" s="46"/>
+      <c r="F187" s="46"/>
+      <c r="G187" s="46"/>
+      <c r="H187" s="46"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="61"/>
-      <c r="C188" s="61"/>
-      <c r="D188" s="61"/>
-      <c r="E188" s="61"/>
-      <c r="F188" s="61"/>
-      <c r="G188" s="61"/>
-      <c r="H188" s="61"/>
+      <c r="B188" s="46"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="46"/>
+      <c r="E188" s="46"/>
+      <c r="F188" s="46"/>
+      <c r="G188" s="46"/>
+      <c r="H188" s="46"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="61"/>
-      <c r="C189" s="61"/>
-      <c r="D189" s="61"/>
-      <c r="E189" s="61"/>
-      <c r="F189" s="61"/>
-      <c r="G189" s="61"/>
-      <c r="H189" s="61"/>
+      <c r="B189" s="46"/>
+      <c r="C189" s="46"/>
+      <c r="D189" s="46"/>
+      <c r="E189" s="46"/>
+      <c r="F189" s="46"/>
+      <c r="G189" s="46"/>
+      <c r="H189" s="46"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="61"/>
-      <c r="C190" s="61"/>
-      <c r="D190" s="61"/>
-      <c r="E190" s="61"/>
-      <c r="F190" s="61"/>
-      <c r="G190" s="61"/>
-      <c r="H190" s="61"/>
+      <c r="B190" s="46"/>
+      <c r="C190" s="46"/>
+      <c r="D190" s="46"/>
+      <c r="E190" s="46"/>
+      <c r="F190" s="46"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="46"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="61"/>
-      <c r="C191" s="61"/>
-      <c r="D191" s="61"/>
-      <c r="E191" s="61"/>
-      <c r="F191" s="61"/>
-      <c r="G191" s="61"/>
-      <c r="H191" s="61"/>
+      <c r="B191" s="46"/>
+      <c r="C191" s="46"/>
+      <c r="D191" s="46"/>
+      <c r="E191" s="46"/>
+      <c r="F191" s="46"/>
+      <c r="G191" s="46"/>
+      <c r="H191" s="46"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="61"/>
-      <c r="C192" s="61"/>
-      <c r="D192" s="61"/>
-      <c r="E192" s="61"/>
-      <c r="F192" s="61"/>
-      <c r="G192" s="61"/>
-      <c r="H192" s="61"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="46"/>
+      <c r="E192" s="46"/>
+      <c r="F192" s="46"/>
+      <c r="G192" s="46"/>
+      <c r="H192" s="46"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="61"/>
-      <c r="C193" s="61"/>
-      <c r="D193" s="61"/>
-      <c r="E193" s="61"/>
-      <c r="F193" s="61"/>
-      <c r="G193" s="61"/>
-      <c r="H193" s="61"/>
+      <c r="B193" s="46"/>
+      <c r="C193" s="46"/>
+      <c r="D193" s="46"/>
+      <c r="E193" s="46"/>
+      <c r="F193" s="46"/>
+      <c r="G193" s="46"/>
+      <c r="H193" s="46"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="61"/>
-      <c r="C194" s="61"/>
-      <c r="D194" s="61"/>
-      <c r="E194" s="61"/>
-      <c r="F194" s="61"/>
-      <c r="G194" s="61"/>
-      <c r="H194" s="61"/>
+      <c r="B194" s="46"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="46"/>
+      <c r="E194" s="46"/>
+      <c r="F194" s="46"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="46"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="61"/>
-      <c r="C195" s="61"/>
-      <c r="D195" s="61"/>
-      <c r="E195" s="61"/>
-      <c r="F195" s="61"/>
-      <c r="G195" s="61"/>
-      <c r="H195" s="61"/>
+      <c r="B195" s="46"/>
+      <c r="C195" s="46"/>
+      <c r="D195" s="46"/>
+      <c r="E195" s="46"/>
+      <c r="F195" s="46"/>
+      <c r="G195" s="46"/>
+      <c r="H195" s="46"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="61"/>
-      <c r="C196" s="61"/>
-      <c r="D196" s="61"/>
-      <c r="E196" s="61"/>
-      <c r="F196" s="61"/>
-      <c r="G196" s="61"/>
-      <c r="H196" s="61"/>
+      <c r="B196" s="46"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="46"/>
+      <c r="E196" s="46"/>
+      <c r="F196" s="46"/>
+      <c r="G196" s="46"/>
+      <c r="H196" s="46"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="61"/>
-      <c r="C197" s="61"/>
-      <c r="D197" s="61"/>
-      <c r="E197" s="61"/>
-      <c r="F197" s="61"/>
-      <c r="G197" s="61"/>
-      <c r="H197" s="61"/>
+      <c r="B197" s="46"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="46"/>
+      <c r="E197" s="46"/>
+      <c r="F197" s="46"/>
+      <c r="G197" s="46"/>
+      <c r="H197" s="46"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="61"/>
-      <c r="C198" s="61"/>
-      <c r="D198" s="61"/>
-      <c r="E198" s="61"/>
-      <c r="F198" s="61"/>
-      <c r="G198" s="61"/>
-      <c r="H198" s="61"/>
+      <c r="B198" s="46"/>
+      <c r="C198" s="46"/>
+      <c r="D198" s="46"/>
+      <c r="E198" s="46"/>
+      <c r="F198" s="46"/>
+      <c r="G198" s="46"/>
+      <c r="H198" s="46"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="61"/>
-      <c r="C199" s="61"/>
-      <c r="D199" s="61"/>
-      <c r="E199" s="61"/>
-      <c r="F199" s="61"/>
-      <c r="G199" s="61"/>
-      <c r="H199" s="61"/>
+      <c r="B199" s="46"/>
+      <c r="C199" s="46"/>
+      <c r="D199" s="46"/>
+      <c r="E199" s="46"/>
+      <c r="F199" s="46"/>
+      <c r="G199" s="46"/>
+      <c r="H199" s="46"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="61"/>
-      <c r="C200" s="61"/>
-      <c r="D200" s="61"/>
-      <c r="E200" s="61"/>
-      <c r="F200" s="61"/>
-      <c r="G200" s="61"/>
-      <c r="H200" s="61"/>
+      <c r="B200" s="46"/>
+      <c r="C200" s="46"/>
+      <c r="D200" s="46"/>
+      <c r="E200" s="46"/>
+      <c r="F200" s="46"/>
+      <c r="G200" s="46"/>
+      <c r="H200" s="46"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="61"/>
-      <c r="C201" s="61"/>
-      <c r="D201" s="61"/>
-      <c r="E201" s="61"/>
-      <c r="F201" s="61"/>
-      <c r="G201" s="61"/>
-      <c r="H201" s="61"/>
+      <c r="B201" s="46"/>
+      <c r="C201" s="46"/>
+      <c r="D201" s="46"/>
+      <c r="E201" s="46"/>
+      <c r="F201" s="46"/>
+      <c r="G201" s="46"/>
+      <c r="H201" s="46"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="61"/>
-      <c r="C202" s="61"/>
-      <c r="D202" s="61"/>
-      <c r="E202" s="61"/>
-      <c r="F202" s="61"/>
-      <c r="G202" s="61"/>
-      <c r="H202" s="61"/>
+      <c r="B202" s="46"/>
+      <c r="C202" s="46"/>
+      <c r="D202" s="46"/>
+      <c r="E202" s="46"/>
+      <c r="F202" s="46"/>
+      <c r="G202" s="46"/>
+      <c r="H202" s="46"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="61"/>
-      <c r="C203" s="61"/>
-      <c r="D203" s="61"/>
-      <c r="E203" s="61"/>
-      <c r="F203" s="61"/>
-      <c r="G203" s="61"/>
-      <c r="H203" s="61"/>
+      <c r="B203" s="46"/>
+      <c r="C203" s="46"/>
+      <c r="D203" s="46"/>
+      <c r="E203" s="46"/>
+      <c r="F203" s="46"/>
+      <c r="G203" s="46"/>
+      <c r="H203" s="46"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="61"/>
-      <c r="C204" s="61"/>
-      <c r="D204" s="61"/>
-      <c r="E204" s="61"/>
-      <c r="F204" s="61"/>
-      <c r="G204" s="61"/>
-      <c r="H204" s="61"/>
+      <c r="B204" s="46"/>
+      <c r="C204" s="46"/>
+      <c r="D204" s="46"/>
+      <c r="E204" s="46"/>
+      <c r="F204" s="46"/>
+      <c r="G204" s="46"/>
+      <c r="H204" s="46"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="61"/>
-      <c r="C205" s="61"/>
-      <c r="D205" s="61"/>
-      <c r="E205" s="61"/>
-      <c r="F205" s="61"/>
-      <c r="G205" s="61"/>
-      <c r="H205" s="61"/>
+      <c r="B205" s="46"/>
+      <c r="C205" s="46"/>
+      <c r="D205" s="46"/>
+      <c r="E205" s="46"/>
+      <c r="F205" s="46"/>
+      <c r="G205" s="46"/>
+      <c r="H205" s="46"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="61"/>
-      <c r="C206" s="61"/>
-      <c r="D206" s="61"/>
-      <c r="E206" s="61"/>
-      <c r="F206" s="61"/>
-      <c r="G206" s="61"/>
-      <c r="H206" s="61"/>
+      <c r="B206" s="46"/>
+      <c r="C206" s="46"/>
+      <c r="D206" s="46"/>
+      <c r="E206" s="46"/>
+      <c r="F206" s="46"/>
+      <c r="G206" s="46"/>
+      <c r="H206" s="46"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="61"/>
-      <c r="C207" s="61"/>
-      <c r="D207" s="61"/>
-      <c r="E207" s="61"/>
-      <c r="F207" s="61"/>
-      <c r="G207" s="61"/>
-      <c r="H207" s="61"/>
+      <c r="B207" s="46"/>
+      <c r="C207" s="46"/>
+      <c r="D207" s="46"/>
+      <c r="E207" s="46"/>
+      <c r="F207" s="46"/>
+      <c r="G207" s="46"/>
+      <c r="H207" s="46"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="61"/>
-      <c r="C208" s="61"/>
-      <c r="D208" s="61"/>
-      <c r="E208" s="61"/>
-      <c r="F208" s="61"/>
-      <c r="G208" s="61"/>
-      <c r="H208" s="61"/>
+      <c r="B208" s="46"/>
+      <c r="C208" s="46"/>
+      <c r="D208" s="46"/>
+      <c r="E208" s="46"/>
+      <c r="F208" s="46"/>
+      <c r="G208" s="46"/>
+      <c r="H208" s="46"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="61"/>
-      <c r="C209" s="61"/>
-      <c r="D209" s="61"/>
-      <c r="E209" s="61"/>
-      <c r="F209" s="61"/>
-      <c r="G209" s="61"/>
-      <c r="H209" s="61"/>
+      <c r="B209" s="46"/>
+      <c r="C209" s="46"/>
+      <c r="D209" s="46"/>
+      <c r="E209" s="46"/>
+      <c r="F209" s="46"/>
+      <c r="G209" s="46"/>
+      <c r="H209" s="46"/>
     </row>
     <row r="222" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B222" s="62"/>
-      <c r="C222" s="62"/>
-      <c r="D222" s="62"/>
-      <c r="E222" s="62"/>
-      <c r="F222" s="62"/>
-      <c r="G222" s="62"/>
-      <c r="H222" s="62"/>
-      <c r="I222" s="62"/>
+      <c r="A222" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B222" s="60"/>
+      <c r="C222" s="60"/>
+      <c r="D222" s="60"/>
+      <c r="E222" s="60"/>
+      <c r="F222" s="60"/>
+      <c r="G222" s="60"/>
+      <c r="H222" s="60"/>
+      <c r="I222" s="60"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B224" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C224" s="60"/>
-      <c r="D224" s="60"/>
-      <c r="E224" s="60"/>
-      <c r="F224" s="60"/>
-      <c r="G224" s="60"/>
-      <c r="H224" s="60"/>
+      <c r="B224" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C224" s="59"/>
+      <c r="D224" s="59"/>
+      <c r="E224" s="59"/>
+      <c r="F224" s="59"/>
+      <c r="G224" s="59"/>
+      <c r="H224" s="59"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="56"/>
-      <c r="C225" s="56"/>
-      <c r="D225" s="56"/>
-      <c r="E225" s="56"/>
-      <c r="F225" s="56"/>
-      <c r="G225" s="56"/>
-      <c r="H225" s="56"/>
-    </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="61"/>
-      <c r="C226" s="61"/>
-      <c r="D226" s="61"/>
-      <c r="E226" s="61"/>
-      <c r="F226" s="61"/>
-      <c r="G226" s="61"/>
-      <c r="H226" s="61"/>
+      <c r="B225" s="55"/>
+      <c r="C225" s="55"/>
+      <c r="D225" s="55"/>
+      <c r="E225" s="55"/>
+      <c r="F225" s="55"/>
+      <c r="G225" s="55"/>
+      <c r="H225" s="55"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B226" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C226" s="46"/>
+      <c r="D226" s="46"/>
+      <c r="E226" s="46"/>
+      <c r="F226" s="46"/>
+      <c r="G226" s="46"/>
+      <c r="H226" s="46"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="61"/>
-      <c r="C227" s="61"/>
-      <c r="D227" s="61"/>
-      <c r="E227" s="61"/>
-      <c r="F227" s="61"/>
-      <c r="G227" s="61"/>
-      <c r="H227" s="61"/>
+      <c r="B227" s="46"/>
+      <c r="C227" s="46"/>
+      <c r="D227" s="46"/>
+      <c r="E227" s="46"/>
+      <c r="F227" s="46"/>
+      <c r="G227" s="46"/>
+      <c r="H227" s="46"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="61"/>
-      <c r="C228" s="61"/>
-      <c r="D228" s="61"/>
-      <c r="E228" s="61"/>
-      <c r="F228" s="61"/>
-      <c r="G228" s="61"/>
-      <c r="H228" s="61"/>
+      <c r="B228" s="46"/>
+      <c r="C228" s="46"/>
+      <c r="D228" s="46"/>
+      <c r="E228" s="46"/>
+      <c r="F228" s="46"/>
+      <c r="G228" s="46"/>
+      <c r="H228" s="46"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="61"/>
-      <c r="C229" s="61"/>
-      <c r="D229" s="61"/>
-      <c r="E229" s="61"/>
-      <c r="F229" s="61"/>
-      <c r="G229" s="61"/>
-      <c r="H229" s="61"/>
+      <c r="B229" s="46"/>
+      <c r="C229" s="46"/>
+      <c r="D229" s="46"/>
+      <c r="E229" s="46"/>
+      <c r="F229" s="46"/>
+      <c r="G229" s="46"/>
+      <c r="H229" s="46"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="61"/>
-      <c r="C230" s="61"/>
-      <c r="D230" s="61"/>
-      <c r="E230" s="61"/>
-      <c r="F230" s="61"/>
-      <c r="G230" s="61"/>
-      <c r="H230" s="61"/>
+      <c r="B230" s="46"/>
+      <c r="C230" s="46"/>
+      <c r="D230" s="46"/>
+      <c r="E230" s="46"/>
+      <c r="F230" s="46"/>
+      <c r="G230" s="46"/>
+      <c r="H230" s="46"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="61"/>
-      <c r="C231" s="61"/>
-      <c r="D231" s="61"/>
-      <c r="E231" s="61"/>
-      <c r="F231" s="61"/>
-      <c r="G231" s="61"/>
-      <c r="H231" s="61"/>
+      <c r="B231" s="46"/>
+      <c r="C231" s="46"/>
+      <c r="D231" s="46"/>
+      <c r="E231" s="46"/>
+      <c r="F231" s="46"/>
+      <c r="G231" s="46"/>
+      <c r="H231" s="46"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="61"/>
-      <c r="C232" s="61"/>
-      <c r="D232" s="61"/>
-      <c r="E232" s="61"/>
-      <c r="F232" s="61"/>
-      <c r="G232" s="61"/>
-      <c r="H232" s="61"/>
+      <c r="B232" s="46"/>
+      <c r="C232" s="46"/>
+      <c r="D232" s="46"/>
+      <c r="E232" s="46"/>
+      <c r="F232" s="46"/>
+      <c r="G232" s="46"/>
+      <c r="H232" s="46"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="61"/>
-      <c r="C233" s="61"/>
-      <c r="D233" s="61"/>
-      <c r="E233" s="61"/>
-      <c r="F233" s="61"/>
-      <c r="G233" s="61"/>
-      <c r="H233" s="61"/>
+      <c r="B233" s="46"/>
+      <c r="C233" s="46"/>
+      <c r="D233" s="46"/>
+      <c r="E233" s="46"/>
+      <c r="F233" s="46"/>
+      <c r="G233" s="46"/>
+      <c r="H233" s="46"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="61"/>
-      <c r="C234" s="61"/>
-      <c r="D234" s="61"/>
-      <c r="E234" s="61"/>
-      <c r="F234" s="61"/>
-      <c r="G234" s="61"/>
-      <c r="H234" s="61"/>
+      <c r="B234" s="46"/>
+      <c r="C234" s="46"/>
+      <c r="D234" s="46"/>
+      <c r="E234" s="46"/>
+      <c r="F234" s="46"/>
+      <c r="G234" s="46"/>
+      <c r="H234" s="46"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="61"/>
-      <c r="C235" s="61"/>
-      <c r="D235" s="61"/>
-      <c r="E235" s="61"/>
-      <c r="F235" s="61"/>
-      <c r="G235" s="61"/>
-      <c r="H235" s="61"/>
+      <c r="B235" s="46"/>
+      <c r="C235" s="46"/>
+      <c r="D235" s="46"/>
+      <c r="E235" s="46"/>
+      <c r="F235" s="46"/>
+      <c r="G235" s="46"/>
+      <c r="H235" s="46"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="61"/>
-      <c r="C236" s="61"/>
-      <c r="D236" s="61"/>
-      <c r="E236" s="61"/>
-      <c r="F236" s="61"/>
-      <c r="G236" s="61"/>
-      <c r="H236" s="61"/>
+      <c r="B236" s="46"/>
+      <c r="C236" s="46"/>
+      <c r="D236" s="46"/>
+      <c r="E236" s="46"/>
+      <c r="F236" s="46"/>
+      <c r="G236" s="46"/>
+      <c r="H236" s="46"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="61"/>
-      <c r="C237" s="61"/>
-      <c r="D237" s="61"/>
-      <c r="E237" s="61"/>
-      <c r="F237" s="61"/>
-      <c r="G237" s="61"/>
-      <c r="H237" s="61"/>
+      <c r="B237" s="46"/>
+      <c r="C237" s="46"/>
+      <c r="D237" s="46"/>
+      <c r="E237" s="46"/>
+      <c r="F237" s="46"/>
+      <c r="G237" s="46"/>
+      <c r="H237" s="46"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="61"/>
-      <c r="C238" s="61"/>
-      <c r="D238" s="61"/>
-      <c r="E238" s="61"/>
-      <c r="F238" s="61"/>
-      <c r="G238" s="61"/>
-      <c r="H238" s="61"/>
+      <c r="B238" s="46"/>
+      <c r="C238" s="46"/>
+      <c r="D238" s="46"/>
+      <c r="E238" s="46"/>
+      <c r="F238" s="46"/>
+      <c r="G238" s="46"/>
+      <c r="H238" s="46"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="61"/>
-      <c r="C239" s="61"/>
-      <c r="D239" s="61"/>
-      <c r="E239" s="61"/>
-      <c r="F239" s="61"/>
-      <c r="G239" s="61"/>
-      <c r="H239" s="61"/>
+      <c r="B239" s="46"/>
+      <c r="C239" s="46"/>
+      <c r="D239" s="46"/>
+      <c r="E239" s="46"/>
+      <c r="F239" s="46"/>
+      <c r="G239" s="46"/>
+      <c r="H239" s="46"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="61"/>
-      <c r="C240" s="61"/>
-      <c r="D240" s="61"/>
-      <c r="E240" s="61"/>
-      <c r="F240" s="61"/>
-      <c r="G240" s="61"/>
-      <c r="H240" s="61"/>
+      <c r="B240" s="46"/>
+      <c r="C240" s="46"/>
+      <c r="D240" s="46"/>
+      <c r="E240" s="46"/>
+      <c r="F240" s="46"/>
+      <c r="G240" s="46"/>
+      <c r="H240" s="46"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="61"/>
-      <c r="C241" s="61"/>
-      <c r="D241" s="61"/>
-      <c r="E241" s="61"/>
-      <c r="F241" s="61"/>
-      <c r="G241" s="61"/>
-      <c r="H241" s="61"/>
+      <c r="B241" s="46"/>
+      <c r="C241" s="46"/>
+      <c r="D241" s="46"/>
+      <c r="E241" s="46"/>
+      <c r="F241" s="46"/>
+      <c r="G241" s="46"/>
+      <c r="H241" s="46"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="61"/>
-      <c r="C242" s="61"/>
-      <c r="D242" s="61"/>
-      <c r="E242" s="61"/>
-      <c r="F242" s="61"/>
-      <c r="G242" s="61"/>
-      <c r="H242" s="61"/>
+      <c r="B242" s="46"/>
+      <c r="C242" s="46"/>
+      <c r="D242" s="46"/>
+      <c r="E242" s="46"/>
+      <c r="F242" s="46"/>
+      <c r="G242" s="46"/>
+      <c r="H242" s="46"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="61"/>
-      <c r="C243" s="61"/>
-      <c r="D243" s="61"/>
-      <c r="E243" s="61"/>
-      <c r="F243" s="61"/>
-      <c r="G243" s="61"/>
-      <c r="H243" s="61"/>
+      <c r="B243" s="46"/>
+      <c r="C243" s="46"/>
+      <c r="D243" s="46"/>
+      <c r="E243" s="46"/>
+      <c r="F243" s="46"/>
+      <c r="G243" s="46"/>
+      <c r="H243" s="46"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="61"/>
-      <c r="C244" s="61"/>
-      <c r="D244" s="61"/>
-      <c r="E244" s="61"/>
-      <c r="F244" s="61"/>
-      <c r="G244" s="61"/>
-      <c r="H244" s="61"/>
+      <c r="B244" s="46"/>
+      <c r="C244" s="46"/>
+      <c r="D244" s="46"/>
+      <c r="E244" s="46"/>
+      <c r="F244" s="46"/>
+      <c r="G244" s="46"/>
+      <c r="H244" s="46"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="61"/>
-      <c r="C245" s="61"/>
-      <c r="D245" s="61"/>
-      <c r="E245" s="61"/>
-      <c r="F245" s="61"/>
-      <c r="G245" s="61"/>
-      <c r="H245" s="61"/>
+      <c r="B245" s="46"/>
+      <c r="C245" s="46"/>
+      <c r="D245" s="46"/>
+      <c r="E245" s="46"/>
+      <c r="F245" s="46"/>
+      <c r="G245" s="46"/>
+      <c r="H245" s="46"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="61"/>
-      <c r="C246" s="61"/>
-      <c r="D246" s="61"/>
-      <c r="E246" s="61"/>
-      <c r="F246" s="61"/>
-      <c r="G246" s="61"/>
-      <c r="H246" s="61"/>
+      <c r="B246" s="46"/>
+      <c r="C246" s="46"/>
+      <c r="D246" s="46"/>
+      <c r="E246" s="46"/>
+      <c r="F246" s="46"/>
+      <c r="G246" s="46"/>
+      <c r="H246" s="46"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="61"/>
-      <c r="C247" s="61"/>
-      <c r="D247" s="61"/>
-      <c r="E247" s="61"/>
-      <c r="F247" s="61"/>
-      <c r="G247" s="61"/>
-      <c r="H247" s="61"/>
+      <c r="B247" s="46"/>
+      <c r="C247" s="46"/>
+      <c r="D247" s="46"/>
+      <c r="E247" s="46"/>
+      <c r="F247" s="46"/>
+      <c r="G247" s="46"/>
+      <c r="H247" s="46"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="61"/>
-      <c r="C248" s="61"/>
-      <c r="D248" s="61"/>
-      <c r="E248" s="61"/>
-      <c r="F248" s="61"/>
-      <c r="G248" s="61"/>
-      <c r="H248" s="61"/>
+      <c r="B248" s="46"/>
+      <c r="C248" s="46"/>
+      <c r="D248" s="46"/>
+      <c r="E248" s="46"/>
+      <c r="F248" s="46"/>
+      <c r="G248" s="46"/>
+      <c r="H248" s="46"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="61"/>
-      <c r="C249" s="61"/>
-      <c r="D249" s="61"/>
-      <c r="E249" s="61"/>
-      <c r="F249" s="61"/>
-      <c r="G249" s="61"/>
-      <c r="H249" s="61"/>
+      <c r="B249" s="46"/>
+      <c r="C249" s="46"/>
+      <c r="D249" s="46"/>
+      <c r="E249" s="46"/>
+      <c r="F249" s="46"/>
+      <c r="G249" s="46"/>
+      <c r="H249" s="46"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="61"/>
-      <c r="C250" s="61"/>
-      <c r="D250" s="61"/>
-      <c r="E250" s="61"/>
-      <c r="F250" s="61"/>
-      <c r="G250" s="61"/>
-      <c r="H250" s="61"/>
+      <c r="B250" s="46"/>
+      <c r="C250" s="46"/>
+      <c r="D250" s="46"/>
+      <c r="E250" s="46"/>
+      <c r="F250" s="46"/>
+      <c r="G250" s="46"/>
+      <c r="H250" s="46"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="61"/>
-      <c r="C251" s="61"/>
-      <c r="D251" s="61"/>
-      <c r="E251" s="61"/>
-      <c r="F251" s="61"/>
-      <c r="G251" s="61"/>
-      <c r="H251" s="61"/>
+      <c r="B251" s="46"/>
+      <c r="C251" s="46"/>
+      <c r="D251" s="46"/>
+      <c r="E251" s="46"/>
+      <c r="F251" s="46"/>
+      <c r="G251" s="46"/>
+      <c r="H251" s="46"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="61"/>
-      <c r="C252" s="61"/>
-      <c r="D252" s="61"/>
-      <c r="E252" s="61"/>
-      <c r="F252" s="61"/>
-      <c r="G252" s="61"/>
-      <c r="H252" s="61"/>
+      <c r="B252" s="46"/>
+      <c r="C252" s="46"/>
+      <c r="D252" s="46"/>
+      <c r="E252" s="46"/>
+      <c r="F252" s="46"/>
+      <c r="G252" s="46"/>
+      <c r="H252" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5548,7 +5573,7 @@
   </sheetPr>
   <dimension ref="A2:I209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P85" activeCellId="0" sqref="P85"/>
     </sheetView>
   </sheetViews>
@@ -5557,1248 +5582,1248 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="2" s="64" customFormat="true" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+    <row r="2" s="62" customFormat="true" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="4" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="B4" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="46" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
+      <c r="A46" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
     </row>
     <row r="48" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
+      <c r="B48" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
+      <c r="B49" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="66"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="66"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
     </row>
     <row r="79" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
+      <c r="A79" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
     </row>
     <row r="81" customFormat="false" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
+      <c r="B81" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
     </row>
     <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
+      <c r="B83" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="68"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="68"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="68"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="68"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="68"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="68"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="68"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="68"/>
-      <c r="H91" s="68"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="68"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="68"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="68"/>
-      <c r="H94" s="68"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="68"/>
-      <c r="H95" s="68"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="68"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="68"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="68"/>
-      <c r="H97" s="68"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="68"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="68"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="68"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="68"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="68"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="68"/>
-      <c r="H101" s="68"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="68"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="68"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="68"/>
-      <c r="H103" s="68"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="68"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="68"/>
-      <c r="H104" s="68"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="68"/>
-      <c r="H105" s="68"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="68"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="68"/>
-      <c r="F106" s="68"/>
-      <c r="G106" s="68"/>
-      <c r="H106" s="68"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="68"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="68"/>
-      <c r="H107" s="68"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="68"/>
-      <c r="H108" s="68"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="68"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="68"/>
-      <c r="H109" s="68"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="57"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="56"/>
     </row>
     <row r="115" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B115" s="50"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="50"/>
-      <c r="F115" s="50"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="50"/>
-      <c r="I115" s="50"/>
+      <c r="A115" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B115" s="49"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="49"/>
+      <c r="I115" s="49"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="58"/>
+      <c r="B116" s="57"/>
     </row>
     <row r="117" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
+      <c r="B117" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="53"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="53"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="54"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="54"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="68"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="54"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="68"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="68"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="68"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="68"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="54"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="68"/>
+      <c r="H123" s="68"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="54"/>
-      <c r="C124" s="54"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="54"/>
-      <c r="F124" s="54"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="54"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="54"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="68"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="68"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="68"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="54"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="68"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="68"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="68"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="54"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
-      <c r="F127" s="54"/>
-      <c r="G127" s="54"/>
-      <c r="H127" s="54"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+      <c r="H127" s="68"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="54"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
+      <c r="B128" s="68"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="68"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="54"/>
-      <c r="C129" s="54"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="54"/>
-      <c r="F129" s="54"/>
-      <c r="G129" s="54"/>
-      <c r="H129" s="54"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="68"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="54"/>
-      <c r="C130" s="54"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="54"/>
-      <c r="G130" s="54"/>
-      <c r="H130" s="54"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="68"/>
+      <c r="H130" s="68"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="54"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="54"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="68"/>
+      <c r="H131" s="68"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="68"/>
+      <c r="D132" s="68"/>
+      <c r="E132" s="68"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="68"/>
+      <c r="H132" s="68"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="54"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="54"/>
-      <c r="F133" s="54"/>
-      <c r="G133" s="54"/>
-      <c r="H133" s="54"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="68"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="68"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="54"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
+      <c r="H134" s="68"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="54"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="54"/>
-      <c r="F135" s="54"/>
-      <c r="G135" s="54"/>
-      <c r="H135" s="54"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="68"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="68"/>
+      <c r="H135" s="68"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="54"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="54"/>
-      <c r="F136" s="54"/>
-      <c r="G136" s="54"/>
-      <c r="H136" s="54"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
+      <c r="H136" s="68"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="54"/>
-      <c r="C137" s="54"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="54"/>
-      <c r="F137" s="54"/>
-      <c r="G137" s="54"/>
-      <c r="H137" s="54"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="54"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="54"/>
-      <c r="F138" s="54"/>
-      <c r="G138" s="54"/>
-      <c r="H138" s="54"/>
+      <c r="B138" s="68"/>
+      <c r="C138" s="68"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="68"/>
+      <c r="F138" s="68"/>
+      <c r="G138" s="68"/>
+      <c r="H138" s="68"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="54"/>
-      <c r="C139" s="54"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="54"/>
-      <c r="F139" s="54"/>
-      <c r="G139" s="54"/>
-      <c r="H139" s="54"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="68"/>
+      <c r="F139" s="68"/>
+      <c r="G139" s="68"/>
+      <c r="H139" s="68"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="54"/>
-      <c r="C140" s="54"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="54"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="54"/>
-      <c r="H140" s="54"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="68"/>
+      <c r="H140" s="68"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="54"/>
-      <c r="C141" s="54"/>
-      <c r="D141" s="54"/>
-      <c r="E141" s="54"/>
-      <c r="F141" s="54"/>
-      <c r="G141" s="54"/>
-      <c r="H141" s="54"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="68"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="54"/>
-      <c r="C142" s="54"/>
-      <c r="D142" s="54"/>
-      <c r="E142" s="54"/>
-      <c r="F142" s="54"/>
-      <c r="G142" s="54"/>
-      <c r="H142" s="54"/>
+      <c r="B142" s="68"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="68"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="68"/>
+      <c r="H142" s="68"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="54"/>
-      <c r="C143" s="54"/>
-      <c r="D143" s="54"/>
-      <c r="E143" s="54"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="54"/>
-      <c r="H143" s="54"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="68"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="54"/>
-      <c r="C144" s="54"/>
-      <c r="D144" s="54"/>
-      <c r="E144" s="54"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="54"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="68"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="54"/>
-      <c r="C145" s="54"/>
-      <c r="D145" s="54"/>
-      <c r="E145" s="54"/>
-      <c r="F145" s="54"/>
-      <c r="G145" s="54"/>
-      <c r="H145" s="54"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="68"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="68"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="70"/>
-      <c r="F146" s="70"/>
-      <c r="G146" s="70"/>
-      <c r="H146" s="70"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="69"/>
+      <c r="F146" s="69"/>
+      <c r="G146" s="69"/>
+      <c r="H146" s="69"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="70"/>
-      <c r="C147" s="70"/>
-      <c r="D147" s="70"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
+      <c r="B147" s="69"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="69"/>
+      <c r="F147" s="69"/>
+      <c r="G147" s="69"/>
+      <c r="H147" s="69"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="70"/>
-      <c r="C148" s="70"/>
-      <c r="D148" s="70"/>
-      <c r="E148" s="70"/>
-      <c r="F148" s="70"/>
-      <c r="G148" s="70"/>
-      <c r="H148" s="70"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="69"/>
+      <c r="F148" s="69"/>
+      <c r="G148" s="69"/>
+      <c r="H148" s="69"/>
     </row>
     <row r="150" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150" s="50"/>
-      <c r="C150" s="50"/>
-      <c r="D150" s="50"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="50"/>
-      <c r="G150" s="50"/>
-      <c r="H150" s="50"/>
-      <c r="I150" s="50"/>
+      <c r="A150" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B150" s="49"/>
+      <c r="C150" s="49"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="49"/>
+      <c r="H150" s="49"/>
+      <c r="I150" s="49"/>
     </row>
     <row r="152" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="71"/>
-      <c r="H152" s="71"/>
+      <c r="B152" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" s="70"/>
+      <c r="D152" s="70"/>
+      <c r="E152" s="70"/>
+      <c r="F152" s="70"/>
+      <c r="G152" s="70"/>
+      <c r="H152" s="70"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="47"/>
@@ -6900,283 +6925,283 @@
       <c r="H164" s="47"/>
     </row>
     <row r="169" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="B169" s="72"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="72"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="72"/>
-      <c r="G169" s="72"/>
-      <c r="H169" s="72"/>
-      <c r="I169" s="72"/>
+      <c r="A169" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B169" s="71"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="71"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="71"/>
+      <c r="G169" s="71"/>
+      <c r="H169" s="71"/>
+      <c r="I169" s="71"/>
     </row>
     <row r="171" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C171" s="60"/>
-      <c r="D171" s="60"/>
-      <c r="E171" s="60"/>
-      <c r="F171" s="60"/>
-      <c r="G171" s="60"/>
-      <c r="H171" s="60"/>
+      <c r="B171" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="59"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="56"/>
-      <c r="C172" s="56"/>
-      <c r="D172" s="56"/>
-      <c r="E172" s="56"/>
-      <c r="F172" s="56"/>
-      <c r="G172" s="56"/>
-      <c r="H172" s="56"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="55"/>
+      <c r="G172" s="55"/>
+      <c r="H172" s="55"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="61"/>
-      <c r="C173" s="61"/>
-      <c r="D173" s="61"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="61"/>
-      <c r="G173" s="61"/>
-      <c r="H173" s="61"/>
+      <c r="B173" s="72"/>
+      <c r="C173" s="72"/>
+      <c r="D173" s="72"/>
+      <c r="E173" s="72"/>
+      <c r="F173" s="72"/>
+      <c r="G173" s="72"/>
+      <c r="H173" s="72"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="61"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="61"/>
-      <c r="E174" s="61"/>
-      <c r="F174" s="61"/>
-      <c r="G174" s="61"/>
-      <c r="H174" s="61"/>
+      <c r="B174" s="72"/>
+      <c r="C174" s="72"/>
+      <c r="D174" s="72"/>
+      <c r="E174" s="72"/>
+      <c r="F174" s="72"/>
+      <c r="G174" s="72"/>
+      <c r="H174" s="72"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="61"/>
-      <c r="C175" s="61"/>
-      <c r="D175" s="61"/>
-      <c r="E175" s="61"/>
-      <c r="F175" s="61"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="61"/>
+      <c r="B175" s="72"/>
+      <c r="C175" s="72"/>
+      <c r="D175" s="72"/>
+      <c r="E175" s="72"/>
+      <c r="F175" s="72"/>
+      <c r="G175" s="72"/>
+      <c r="H175" s="72"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="61"/>
-      <c r="C176" s="61"/>
-      <c r="D176" s="61"/>
-      <c r="E176" s="61"/>
-      <c r="F176" s="61"/>
-      <c r="G176" s="61"/>
-      <c r="H176" s="61"/>
+      <c r="B176" s="72"/>
+      <c r="C176" s="72"/>
+      <c r="D176" s="72"/>
+      <c r="E176" s="72"/>
+      <c r="F176" s="72"/>
+      <c r="G176" s="72"/>
+      <c r="H176" s="72"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="61"/>
-      <c r="C177" s="61"/>
-      <c r="D177" s="61"/>
-      <c r="E177" s="61"/>
-      <c r="F177" s="61"/>
-      <c r="G177" s="61"/>
-      <c r="H177" s="61"/>
+      <c r="B177" s="72"/>
+      <c r="C177" s="72"/>
+      <c r="D177" s="72"/>
+      <c r="E177" s="72"/>
+      <c r="F177" s="72"/>
+      <c r="G177" s="72"/>
+      <c r="H177" s="72"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="61"/>
-      <c r="C178" s="61"/>
-      <c r="D178" s="61"/>
-      <c r="E178" s="61"/>
-      <c r="F178" s="61"/>
-      <c r="G178" s="61"/>
-      <c r="H178" s="61"/>
+      <c r="B178" s="72"/>
+      <c r="C178" s="72"/>
+      <c r="D178" s="72"/>
+      <c r="E178" s="72"/>
+      <c r="F178" s="72"/>
+      <c r="G178" s="72"/>
+      <c r="H178" s="72"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="61"/>
-      <c r="C179" s="61"/>
-      <c r="D179" s="61"/>
-      <c r="E179" s="61"/>
-      <c r="F179" s="61"/>
-      <c r="G179" s="61"/>
-      <c r="H179" s="61"/>
+      <c r="B179" s="72"/>
+      <c r="C179" s="72"/>
+      <c r="D179" s="72"/>
+      <c r="E179" s="72"/>
+      <c r="F179" s="72"/>
+      <c r="G179" s="72"/>
+      <c r="H179" s="72"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="61"/>
-      <c r="C180" s="61"/>
-      <c r="D180" s="61"/>
-      <c r="E180" s="61"/>
-      <c r="F180" s="61"/>
-      <c r="G180" s="61"/>
-      <c r="H180" s="61"/>
+      <c r="B180" s="72"/>
+      <c r="C180" s="72"/>
+      <c r="D180" s="72"/>
+      <c r="E180" s="72"/>
+      <c r="F180" s="72"/>
+      <c r="G180" s="72"/>
+      <c r="H180" s="72"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="61"/>
-      <c r="C181" s="61"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="61"/>
-      <c r="F181" s="61"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="61"/>
+      <c r="B181" s="72"/>
+      <c r="C181" s="72"/>
+      <c r="D181" s="72"/>
+      <c r="E181" s="72"/>
+      <c r="F181" s="72"/>
+      <c r="G181" s="72"/>
+      <c r="H181" s="72"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="61"/>
-      <c r="C182" s="61"/>
-      <c r="D182" s="61"/>
-      <c r="E182" s="61"/>
-      <c r="F182" s="61"/>
-      <c r="G182" s="61"/>
-      <c r="H182" s="61"/>
+      <c r="B182" s="72"/>
+      <c r="C182" s="72"/>
+      <c r="D182" s="72"/>
+      <c r="E182" s="72"/>
+      <c r="F182" s="72"/>
+      <c r="G182" s="72"/>
+      <c r="H182" s="72"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="61"/>
-      <c r="C183" s="61"/>
-      <c r="D183" s="61"/>
-      <c r="E183" s="61"/>
-      <c r="F183" s="61"/>
-      <c r="G183" s="61"/>
-      <c r="H183" s="61"/>
+      <c r="B183" s="72"/>
+      <c r="C183" s="72"/>
+      <c r="D183" s="72"/>
+      <c r="E183" s="72"/>
+      <c r="F183" s="72"/>
+      <c r="G183" s="72"/>
+      <c r="H183" s="72"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="61"/>
-      <c r="C184" s="61"/>
-      <c r="D184" s="61"/>
-      <c r="E184" s="61"/>
-      <c r="F184" s="61"/>
-      <c r="G184" s="61"/>
-      <c r="H184" s="61"/>
+      <c r="B184" s="72"/>
+      <c r="C184" s="72"/>
+      <c r="D184" s="72"/>
+      <c r="E184" s="72"/>
+      <c r="F184" s="72"/>
+      <c r="G184" s="72"/>
+      <c r="H184" s="72"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="61"/>
-      <c r="C185" s="61"/>
-      <c r="D185" s="61"/>
-      <c r="E185" s="61"/>
-      <c r="F185" s="61"/>
-      <c r="G185" s="61"/>
-      <c r="H185" s="61"/>
+      <c r="B185" s="72"/>
+      <c r="C185" s="72"/>
+      <c r="D185" s="72"/>
+      <c r="E185" s="72"/>
+      <c r="F185" s="72"/>
+      <c r="G185" s="72"/>
+      <c r="H185" s="72"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="61"/>
-      <c r="C186" s="61"/>
-      <c r="D186" s="61"/>
-      <c r="E186" s="61"/>
-      <c r="F186" s="61"/>
-      <c r="G186" s="61"/>
-      <c r="H186" s="61"/>
+      <c r="B186" s="72"/>
+      <c r="C186" s="72"/>
+      <c r="D186" s="72"/>
+      <c r="E186" s="72"/>
+      <c r="F186" s="72"/>
+      <c r="G186" s="72"/>
+      <c r="H186" s="72"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="61"/>
-      <c r="C187" s="61"/>
-      <c r="D187" s="61"/>
-      <c r="E187" s="61"/>
-      <c r="F187" s="61"/>
-      <c r="G187" s="61"/>
-      <c r="H187" s="61"/>
+      <c r="B187" s="72"/>
+      <c r="C187" s="72"/>
+      <c r="D187" s="72"/>
+      <c r="E187" s="72"/>
+      <c r="F187" s="72"/>
+      <c r="G187" s="72"/>
+      <c r="H187" s="72"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="61"/>
-      <c r="C188" s="61"/>
-      <c r="D188" s="61"/>
-      <c r="E188" s="61"/>
-      <c r="F188" s="61"/>
-      <c r="G188" s="61"/>
-      <c r="H188" s="61"/>
+      <c r="B188" s="72"/>
+      <c r="C188" s="72"/>
+      <c r="D188" s="72"/>
+      <c r="E188" s="72"/>
+      <c r="F188" s="72"/>
+      <c r="G188" s="72"/>
+      <c r="H188" s="72"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="61"/>
-      <c r="C189" s="61"/>
-      <c r="D189" s="61"/>
-      <c r="E189" s="61"/>
-      <c r="F189" s="61"/>
-      <c r="G189" s="61"/>
-      <c r="H189" s="61"/>
+      <c r="B189" s="72"/>
+      <c r="C189" s="72"/>
+      <c r="D189" s="72"/>
+      <c r="E189" s="72"/>
+      <c r="F189" s="72"/>
+      <c r="G189" s="72"/>
+      <c r="H189" s="72"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="61"/>
-      <c r="C190" s="61"/>
-      <c r="D190" s="61"/>
-      <c r="E190" s="61"/>
-      <c r="F190" s="61"/>
-      <c r="G190" s="61"/>
-      <c r="H190" s="61"/>
+      <c r="B190" s="72"/>
+      <c r="C190" s="72"/>
+      <c r="D190" s="72"/>
+      <c r="E190" s="72"/>
+      <c r="F190" s="72"/>
+      <c r="G190" s="72"/>
+      <c r="H190" s="72"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="61"/>
-      <c r="C191" s="61"/>
-      <c r="D191" s="61"/>
-      <c r="E191" s="61"/>
-      <c r="F191" s="61"/>
-      <c r="G191" s="61"/>
-      <c r="H191" s="61"/>
+      <c r="B191" s="72"/>
+      <c r="C191" s="72"/>
+      <c r="D191" s="72"/>
+      <c r="E191" s="72"/>
+      <c r="F191" s="72"/>
+      <c r="G191" s="72"/>
+      <c r="H191" s="72"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="61"/>
-      <c r="C192" s="61"/>
-      <c r="D192" s="61"/>
-      <c r="E192" s="61"/>
-      <c r="F192" s="61"/>
-      <c r="G192" s="61"/>
-      <c r="H192" s="61"/>
+      <c r="B192" s="72"/>
+      <c r="C192" s="72"/>
+      <c r="D192" s="72"/>
+      <c r="E192" s="72"/>
+      <c r="F192" s="72"/>
+      <c r="G192" s="72"/>
+      <c r="H192" s="72"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="61"/>
-      <c r="C193" s="61"/>
-      <c r="D193" s="61"/>
-      <c r="E193" s="61"/>
-      <c r="F193" s="61"/>
-      <c r="G193" s="61"/>
-      <c r="H193" s="61"/>
+      <c r="B193" s="72"/>
+      <c r="C193" s="72"/>
+      <c r="D193" s="72"/>
+      <c r="E193" s="72"/>
+      <c r="F193" s="72"/>
+      <c r="G193" s="72"/>
+      <c r="H193" s="72"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="61"/>
-      <c r="C194" s="61"/>
-      <c r="D194" s="61"/>
-      <c r="E194" s="61"/>
-      <c r="F194" s="61"/>
-      <c r="G194" s="61"/>
-      <c r="H194" s="61"/>
+      <c r="B194" s="72"/>
+      <c r="C194" s="72"/>
+      <c r="D194" s="72"/>
+      <c r="E194" s="72"/>
+      <c r="F194" s="72"/>
+      <c r="G194" s="72"/>
+      <c r="H194" s="72"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="61"/>
-      <c r="C195" s="61"/>
-      <c r="D195" s="61"/>
-      <c r="E195" s="61"/>
-      <c r="F195" s="61"/>
-      <c r="G195" s="61"/>
-      <c r="H195" s="61"/>
+      <c r="B195" s="72"/>
+      <c r="C195" s="72"/>
+      <c r="D195" s="72"/>
+      <c r="E195" s="72"/>
+      <c r="F195" s="72"/>
+      <c r="G195" s="72"/>
+      <c r="H195" s="72"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="61"/>
-      <c r="C196" s="61"/>
-      <c r="D196" s="61"/>
-      <c r="E196" s="61"/>
-      <c r="F196" s="61"/>
-      <c r="G196" s="61"/>
-      <c r="H196" s="61"/>
+      <c r="B196" s="72"/>
+      <c r="C196" s="72"/>
+      <c r="D196" s="72"/>
+      <c r="E196" s="72"/>
+      <c r="F196" s="72"/>
+      <c r="G196" s="72"/>
+      <c r="H196" s="72"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="61"/>
-      <c r="C197" s="61"/>
-      <c r="D197" s="61"/>
-      <c r="E197" s="61"/>
-      <c r="F197" s="61"/>
-      <c r="G197" s="61"/>
-      <c r="H197" s="61"/>
+      <c r="B197" s="72"/>
+      <c r="C197" s="72"/>
+      <c r="D197" s="72"/>
+      <c r="E197" s="72"/>
+      <c r="F197" s="72"/>
+      <c r="G197" s="72"/>
+      <c r="H197" s="72"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="61"/>
-      <c r="C198" s="61"/>
-      <c r="D198" s="61"/>
-      <c r="E198" s="61"/>
-      <c r="F198" s="61"/>
-      <c r="G198" s="61"/>
-      <c r="H198" s="61"/>
+      <c r="B198" s="72"/>
+      <c r="C198" s="72"/>
+      <c r="D198" s="72"/>
+      <c r="E198" s="72"/>
+      <c r="F198" s="72"/>
+      <c r="G198" s="72"/>
+      <c r="H198" s="72"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="61"/>
-      <c r="C199" s="61"/>
-      <c r="D199" s="61"/>
-      <c r="E199" s="61"/>
-      <c r="F199" s="61"/>
-      <c r="G199" s="61"/>
-      <c r="H199" s="61"/>
+      <c r="B199" s="72"/>
+      <c r="C199" s="72"/>
+      <c r="D199" s="72"/>
+      <c r="E199" s="72"/>
+      <c r="F199" s="72"/>
+      <c r="G199" s="72"/>
+      <c r="H199" s="72"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="57"/>
+      <c r="A209" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -7228,21 +7253,21 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="73" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
       <c r="I2" s="74" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="74"/>
       <c r="L2" s="74"/>
       <c r="M2" s="74"/>
       <c r="P2" s="75" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
@@ -7303,21 +7328,21 @@
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="76" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
       <c r="E7" s="76"/>
       <c r="F7" s="76"/>
       <c r="I7" s="77" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J7" s="77"/>
       <c r="K7" s="77"/>
       <c r="L7" s="77"/>
       <c r="M7" s="77"/>
       <c r="P7" s="77" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="77"/>
       <c r="R7" s="77"/>
@@ -7639,21 +7664,21 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="78" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C52" s="78"/>
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
       <c r="F52" s="78"/>
       <c r="I52" s="79" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J52" s="79"/>
       <c r="K52" s="79"/>
       <c r="L52" s="79"/>
       <c r="M52" s="79"/>
       <c r="P52" s="80" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q52" s="80"/>
       <c r="R52" s="80"/>
@@ -7714,14 +7739,14 @@
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="77" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C57" s="77"/>
       <c r="D57" s="77"/>
       <c r="E57" s="77"/>
       <c r="F57" s="77"/>
       <c r="I57" s="77" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J57" s="77"/>
       <c r="K57" s="77"/>
@@ -7729,7 +7754,7 @@
       <c r="M57" s="77"/>
       <c r="N57" s="81"/>
       <c r="P57" s="77" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q57" s="77"/>
       <c r="R57" s="77"/>
@@ -8080,21 +8105,21 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="84" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C102" s="84"/>
       <c r="D102" s="84"/>
       <c r="E102" s="84"/>
       <c r="F102" s="84"/>
       <c r="I102" s="85" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J102" s="85"/>
       <c r="K102" s="85"/>
       <c r="L102" s="85"/>
       <c r="M102" s="85"/>
       <c r="P102" s="86" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q102" s="86"/>
       <c r="R102" s="86"/>
@@ -8155,21 +8180,21 @@
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="77" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C107" s="77"/>
       <c r="D107" s="77"/>
       <c r="E107" s="77"/>
       <c r="F107" s="77"/>
       <c r="I107" s="77" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J107" s="77"/>
       <c r="K107" s="77"/>
       <c r="L107" s="77"/>
       <c r="M107" s="77"/>
       <c r="P107" s="77" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q107" s="77"/>
       <c r="R107" s="77"/>
